--- a/test_data/WebServicesList.xlsx
+++ b/test_data/WebServicesList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmunoz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\indic-wp\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F8BB5-845E-7841-8FCC-857E5F22B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C3685-10A7-4549-B263-02B553BA33D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34540" yWindow="2980" windowWidth="27720" windowHeight="16500" activeTab="2" xr2:uid="{ACF1F190-8283-4F66-B7B7-EE2DDCD5FDEC}"/>
+    <workbookView xWindow="-27990" yWindow="-11595" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{ACF1F190-8283-4F66-B7B7-EE2DDCD5FDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="telugu" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="211">
   <si>
     <t>Method</t>
   </si>
@@ -535,15 +535,9 @@
     <t>{'response_code': 200, 'message': 'Unique Intersecting Rank', 'string': 'hello', 'List': ['e', 'l', 'i'], 'language': 'English', 'data': 2}</t>
   </si>
   <si>
-    <t>hel</t>
-  </si>
-  <si>
     <t>http://localhost/indic-wp/api/compareToIgnoreCase.php?string=HELLO&amp;language=English&amp;secondString=hel</t>
   </si>
   <si>
-    <t>HELLO</t>
-  </si>
-  <si>
     <t>{'response_code': 200, 'message': 'Words Compared', 'string': 'HELLO', 'Second Word': 'hel', 'language': 'English', 'data': 2}</t>
   </si>
   <si>
@@ -613,12 +607,6 @@
     <t>క్కఆస్ట్రేలియా</t>
   </si>
   <si>
-    <t>[[104], [101], [108], [108], [111]]</t>
-  </si>
-  <si>
-    <t>['h', 'e', 'l', 'l', 'o']</t>
-  </si>
-  <si>
     <t>elhlo</t>
   </si>
   <si>
@@ -674,6 +662,12 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>h,e,l,l,o</t>
+  </si>
+  <si>
+    <t>HEL</t>
   </si>
 </sst>
 </file>
@@ -786,12 +780,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -805,6 +793,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,37 +1117,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21103AC9-D0C7-4E9B-B763-2168946C3F8F}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="28.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="143.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1179,11 +1173,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="5">
@@ -1199,8 +1193,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1219,8 +1213,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1239,8 +1233,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1259,8 +1253,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1279,8 +1273,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1299,8 +1293,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1319,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1339,8 +1333,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1359,8 +1353,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1379,8 +1373,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1399,7 +1393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -1433,8 +1427,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1453,8 +1447,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1473,8 +1467,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1493,8 +1487,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1513,7 +1507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1521,23 +1515,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1550,8 +1544,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1564,8 +1558,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1578,8 +1572,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1592,36 +1586,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1634,22 +1628,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1662,8 +1656,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1676,11 +1670,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1690,8 +1684,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1704,8 +1698,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1718,8 +1712,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1732,8 +1726,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1746,8 +1740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1760,19 +1754,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1785,22 +1779,22 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="4">
@@ -1810,22 +1804,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>65</v>
       </c>
@@ -1838,11 +1832,11 @@
       <c r="D43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
@@ -1859,8 +1853,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1872,27 +1866,27 @@
       <c r="D45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+      <c r="E45" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1905,7 +1899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>100</v>
       </c>
@@ -1919,20 +1913,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1955,30 +1949,30 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="143.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +1992,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -2018,8 +2012,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -2038,8 +2032,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -2058,8 +2052,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -2075,8 +2069,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -2092,8 +2086,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -2109,8 +2103,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -2126,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2143,8 +2137,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
@@ -2160,8 +2154,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -2177,8 +2171,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
@@ -2194,7 +2188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2222,8 +2216,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
@@ -2239,8 +2233,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
@@ -2256,8 +2250,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
@@ -2273,8 +2267,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
@@ -2290,139 +2284,139 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2442,56 +2436,56 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="107.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -2512,15 +2506,15 @@
         <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
@@ -2531,25 +2525,25 @@
       <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
+      <c r="F3" s="1">
+        <v>104101108108111</v>
+      </c>
+      <c r="G3" s="1">
+        <v>104101108108111</v>
       </c>
       <c r="H3" t="s">
         <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2560,25 +2554,25 @@
       <c r="E4" t="s">
         <v>106</v>
       </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>192</v>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -2590,24 +2584,24 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
         <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -2618,25 +2612,25 @@
       <c r="E6" t="s">
         <v>106</v>
       </c>
-      <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" t="s">
-        <v>193</v>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -2657,15 +2651,15 @@
         <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -2676,54 +2670,54 @@
       <c r="E8" t="s">
         <v>106</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -2735,24 +2729,24 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -2763,25 +2757,25 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -2792,20 +2786,20 @@
       <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2834,7 +2828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2863,7 +2857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2880,10 +2874,10 @@
         <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
@@ -2892,7 +2886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2909,10 +2903,10 @@
         <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
@@ -2921,7 +2915,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3008,7 +3002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3066,18 +3060,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>106</v>
@@ -3092,21 +3086,21 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
         <v>106</v>
@@ -3121,10 +3115,10 @@
         <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3150,10 +3144,10 @@
         <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3182,18 +3176,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
         <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -3208,10 +3202,10 @@
         <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3269,7 +3263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3298,7 +3292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3327,12 +3321,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
         <v>105</v>
@@ -3353,21 +3347,21 @@
         <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -3382,18 +3376,18 @@
         <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3402,30 +3396,30 @@
         <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
         <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
@@ -3440,47 +3434,47 @@
         <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" t="s">
         <v>176</v>
       </c>
-      <c r="C35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -3489,30 +3483,30 @@
         <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H36" t="s">
         <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
@@ -3527,97 +3521,98 @@
         <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
       <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
         <v>182</v>
       </c>
-      <c r="C39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" t="s">
         <v>183</v>
       </c>
-      <c r="F39" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
       <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
         <v>186</v>
       </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="s">
         <v>187</v>
-      </c>
-      <c r="E40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/WebServicesList.xlsx
+++ b/test_data/WebServicesList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\indic-wp\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/indic-wp/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C3685-10A7-4549-B263-02B553BA33D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E06CC6E-A023-C04F-86CF-6535144438AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-11595" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{ACF1F190-8283-4F66-B7B7-EE2DDCD5FDEC}"/>
+    <workbookView xWindow="33460" yWindow="3600" windowWidth="28800" windowHeight="16460" xr2:uid="{ACF1F190-8283-4F66-B7B7-EE2DDCD5FDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="telugu" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="217">
   <si>
     <t>Method</t>
   </si>
@@ -668,15 +668,40 @@
   </si>
   <si>
     <t>HEL</t>
+  </si>
+  <si>
+    <t>Base Consonants</t>
+  </si>
+  <si>
+    <t>http://localhost/indic-wp/api/baseConsonants.php?input1=hello&amp;input2=English&amp;input3=hello</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>baseConsonants</t>
+  </si>
+  <si>
+    <t>కర్త</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -762,45 +787,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,24 +1141,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21103AC9-D0C7-4E9B-B763-2168946C3F8F}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="28.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="143.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>69</v>
       </c>
@@ -1147,7 +1173,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1515,7 +1541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
@@ -1530,7 +1556,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>45</v>
       </c>
@@ -1544,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1558,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
@@ -1586,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>49</v>
       </c>
@@ -1600,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
@@ -1642,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -1656,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>54</v>
       </c>
@@ -1670,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
@@ -1684,7 +1710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>56</v>
       </c>
@@ -1698,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
@@ -1740,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>60</v>
       </c>
@@ -1754,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
@@ -1765,7 +1791,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +1805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>63</v>
       </c>
@@ -1790,7 +1816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>64</v>
       </c>
@@ -1804,7 +1830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +1845,7 @@
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>65</v>
       </c>
@@ -1836,7 +1862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
@@ -1853,7 +1879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
@@ -1870,7 +1896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>97</v>
       </c>
@@ -1885,7 +1911,7 @@
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>99</v>
       </c>
@@ -1899,7 +1925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>100</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
@@ -1927,6 +1953,23 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1949,17 +1992,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="143.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
@@ -1972,7 +2015,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -2069,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -2086,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -2103,7 +2146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +2163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +2180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -2188,7 +2231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -2202,7 +2245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
@@ -2233,7 +2276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -2250,7 +2293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
@@ -2284,12 +2327,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
@@ -2302,102 +2345,102 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>67</v>
       </c>
@@ -2410,12 +2453,12 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>66</v>
       </c>
@@ -2433,25 +2476,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4CBA77-15CD-BD41-96AA-1CE43029CF2E}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="107.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2538,7 +2581,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2625,7 +2668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2654,7 +2697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2683,7 +2726,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2712,7 +2755,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2770,7 +2813,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2799,7 +2842,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2828,7 +2871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2857,7 +2900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2886,7 +2929,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2915,7 +2958,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2944,7 +2987,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +3016,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3002,7 +3045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3031,7 +3074,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3060,7 +3103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3089,7 +3132,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3118,7 +3161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3147,7 +3190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3176,7 +3219,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -3205,7 +3248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -3234,7 +3277,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3263,7 +3306,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3292,7 +3335,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3321,7 +3364,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -3350,7 +3393,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3379,7 +3422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3408,7 +3451,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3437,7 +3480,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3466,7 +3509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -3495,7 +3538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -3524,7 +3567,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3553,7 +3596,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3582,7 +3625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3609,6 +3652,32 @@
       </c>
       <c r="I40" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
